--- a/Monthly Checking Table.xlsx
+++ b/Monthly Checking Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://radiantvs-my.sharepoint.com/personal/daniel_yang_radiantvs_com/Documents/Yang Tai Yoon/BATCH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EEE49DB-605B-46E9-B208-E5E05B7BBA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9EEE49DB-605B-46E9-B208-E5E05B7BBA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53FBCABA-6D41-44A5-A344-6AF0720D76A8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97DF9BDC-E3EF-4182-AD75-DE4DE2B6D32C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="320">
   <si>
     <t>Line</t>
   </si>
@@ -707,6 +707,294 @@
   </si>
   <si>
     <t>10.121.56.121</t>
+  </si>
+  <si>
+    <t>10.121.41.195</t>
+  </si>
+  <si>
+    <t>HNAMAL41JW01</t>
+  </si>
+  <si>
+    <t>10.121.41.154</t>
+  </si>
+  <si>
+    <t>HNAMAL41JW02</t>
+  </si>
+  <si>
+    <t>10.121.41.155</t>
+  </si>
+  <si>
+    <t>HNAMAL41JW03</t>
+  </si>
+  <si>
+    <t>10.121.41.196</t>
+  </si>
+  <si>
+    <t>HNAMAL41JW04</t>
+  </si>
+  <si>
+    <t>10.121.41.157</t>
+  </si>
+  <si>
+    <t>HNAMAL41JW05</t>
+  </si>
+  <si>
+    <t>10.121.41.158</t>
+  </si>
+  <si>
+    <t>HNAMAL41JW06</t>
+  </si>
+  <si>
+    <t>10.121.41.197</t>
+  </si>
+  <si>
+    <t>HNAMAL41JW07</t>
+  </si>
+  <si>
+    <t>10.121.41.137</t>
+  </si>
+  <si>
+    <t>HNAMAL41JW08</t>
+  </si>
+  <si>
+    <t>10.121.41.161</t>
+  </si>
+  <si>
+    <t>HNAMAL41JW09</t>
+  </si>
+  <si>
+    <t>10.121.41.162</t>
+  </si>
+  <si>
+    <t>HNAMAL41JW10</t>
+  </si>
+  <si>
+    <t>10.121.41.163</t>
+  </si>
+  <si>
+    <t>HNAMAL41JW11</t>
+  </si>
+  <si>
+    <t>10.121.41.164</t>
+  </si>
+  <si>
+    <t>HNAMAL41JW12</t>
+  </si>
+  <si>
+    <t>10.121.42.161</t>
+  </si>
+  <si>
+    <t>HNAMAL42HW01</t>
+  </si>
+  <si>
+    <t>10.121.42.85</t>
+  </si>
+  <si>
+    <t>HNAMAL42JW02</t>
+  </si>
+  <si>
+    <t>10.121.42.163</t>
+  </si>
+  <si>
+    <t>HNAMAL42JW03</t>
+  </si>
+  <si>
+    <t>10.121.42.164</t>
+  </si>
+  <si>
+    <t>HNAMAL42JW04</t>
+  </si>
+  <si>
+    <t>10.121.42.203</t>
+  </si>
+  <si>
+    <t>HNAMAL42JW05</t>
+  </si>
+  <si>
+    <t>10.121.42.97</t>
+  </si>
+  <si>
+    <t>HNAMAL42JW06</t>
+  </si>
+  <si>
+    <t>10.121.42.201</t>
+  </si>
+  <si>
+    <t>HNAMAL42JW07</t>
+  </si>
+  <si>
+    <t>10.121.42.202</t>
+  </si>
+  <si>
+    <t>HNAMAL42JW08</t>
+  </si>
+  <si>
+    <t>10.121.42.165</t>
+  </si>
+  <si>
+    <t>HNAMAL42JW09</t>
+  </si>
+  <si>
+    <t>10.121.42.166</t>
+  </si>
+  <si>
+    <t>HNAMAL42JW10</t>
+  </si>
+  <si>
+    <t>10.121.42.167</t>
+  </si>
+  <si>
+    <t>HNAMAL42JW11</t>
+  </si>
+  <si>
+    <t>10.121.42.168</t>
+  </si>
+  <si>
+    <t>HNAMAL42JW12</t>
+  </si>
+  <si>
+    <t>10.121.41.139</t>
+  </si>
+  <si>
+    <t>HNAMAL42DD01</t>
+  </si>
+  <si>
+    <t>10.121.42.171</t>
+  </si>
+  <si>
+    <t>HNAMAL42DD02</t>
+  </si>
+  <si>
+    <t>10.121.42.175</t>
+  </si>
+  <si>
+    <t>HNAMAL42DD03</t>
+  </si>
+  <si>
+    <t>10.121.42.206</t>
+  </si>
+  <si>
+    <t>HNAMAL42DD04</t>
+  </si>
+  <si>
+    <t>10.121.42.207</t>
+  </si>
+  <si>
+    <t>HNAMAL42DD05</t>
+  </si>
+  <si>
+    <t>10.121.42.208</t>
+  </si>
+  <si>
+    <t>HNAMAL42DD06</t>
+  </si>
+  <si>
+    <t>10.121.43.51</t>
+  </si>
+  <si>
+    <t>HNAMAL42DD07</t>
+  </si>
+  <si>
+    <t>10.121.43.76</t>
+  </si>
+  <si>
+    <t>HNAMAL42DD08</t>
+  </si>
+  <si>
+    <t>10.121.43.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNAMAL42DD09 </t>
+  </si>
+  <si>
+    <t>10.121.43.198</t>
+  </si>
+  <si>
+    <t>HNAMAL42DD10</t>
+  </si>
+  <si>
+    <t>10.121.44.229</t>
+  </si>
+  <si>
+    <t>HNAMAL42DD11</t>
+  </si>
+  <si>
+    <t>10.121.44.71</t>
+  </si>
+  <si>
+    <t>HNAMAL42DD12</t>
+  </si>
+  <si>
+    <t>10.121.42.71</t>
+  </si>
+  <si>
+    <t>HNAMAL43JW01</t>
+  </si>
+  <si>
+    <t>10.121.42.72</t>
+  </si>
+  <si>
+    <t>HNAMAL43JW02</t>
+  </si>
+  <si>
+    <t>10.121.42.73</t>
+  </si>
+  <si>
+    <t>HNAMAL43JW03</t>
+  </si>
+  <si>
+    <t>10.121.42.74</t>
+  </si>
+  <si>
+    <t>HNAMAL43JW04</t>
+  </si>
+  <si>
+    <t>10.121.42.75</t>
+  </si>
+  <si>
+    <t>HNAMAL43JW05</t>
+  </si>
+  <si>
+    <t>10.121.42.76</t>
+  </si>
+  <si>
+    <t>HNAMAL43JW06</t>
+  </si>
+  <si>
+    <t>10.121.42.77</t>
+  </si>
+  <si>
+    <t>HNAMAL43JW07</t>
+  </si>
+  <si>
+    <t>10.121.42.78</t>
+  </si>
+  <si>
+    <t>HNAMAL43JW08</t>
+  </si>
+  <si>
+    <t>10.121.42.79</t>
+  </si>
+  <si>
+    <t>HNAMAL43JW09</t>
+  </si>
+  <si>
+    <t>10.121.42.80</t>
+  </si>
+  <si>
+    <t>HNAMAL43JW10</t>
+  </si>
+  <si>
+    <t>10.121.42.81</t>
+  </si>
+  <si>
+    <t>HNAMAL43JW11</t>
+  </si>
+  <si>
+    <t>10.121.42.82</t>
+  </si>
+  <si>
+    <t>HNAMAL43JW12</t>
   </si>
 </sst>
 </file>
@@ -1419,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0702CC4-A2AA-48C1-8A27-9F2219E774E2}">
   <dimension ref="B1:J363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="I270" sqref="I270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
@@ -4310,12 +4598,24 @@
       <c r="D162" s="15">
         <v>1</v>
       </c>
-      <c r="E162" s="16"/>
-      <c r="F162" s="17"/>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
-      <c r="I162" s="17"/>
-      <c r="J162" s="18"/>
+      <c r="E162" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F162" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G162" s="17">
+        <v>1599651070</v>
+      </c>
+      <c r="H162" s="17">
+        <v>1599751362</v>
+      </c>
+      <c r="I162" s="17">
+        <v>1599753857</v>
+      </c>
+      <c r="J162" s="18">
+        <v>1599652793</v>
+      </c>
     </row>
     <row r="163" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B163" s="13" t="s">
@@ -4327,12 +4627,24 @@
       <c r="D163" s="15">
         <v>2</v>
       </c>
-      <c r="E163" s="16"/>
-      <c r="F163" s="17"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
-      <c r="I163" s="17"/>
-      <c r="J163" s="18"/>
+      <c r="E163" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F163" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="G163" s="17">
+        <v>1599453278</v>
+      </c>
+      <c r="H163" s="17">
+        <v>1599652447</v>
+      </c>
+      <c r="I163" s="17">
+        <v>1599653270</v>
+      </c>
+      <c r="J163" s="18">
+        <v>1599653357</v>
+      </c>
     </row>
     <row r="164" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B164" s="13" t="s">
@@ -4344,12 +4656,24 @@
       <c r="D164" s="15">
         <v>3</v>
       </c>
-      <c r="E164" s="16"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="17"/>
-      <c r="J164" s="18"/>
+      <c r="E164" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F164" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="G164" s="17">
+        <v>1599453266</v>
+      </c>
+      <c r="H164" s="17">
+        <v>1598452724</v>
+      </c>
+      <c r="I164" s="17">
+        <v>1599453486</v>
+      </c>
+      <c r="J164" s="18">
+        <v>1598252375</v>
+      </c>
     </row>
     <row r="165" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B165" s="13" t="s">
@@ -4361,12 +4685,24 @@
       <c r="D165" s="15">
         <v>4</v>
       </c>
-      <c r="E165" s="16"/>
-      <c r="F165" s="17"/>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="18"/>
+      <c r="E165" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F165" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G165" s="17">
+        <v>1599651381</v>
+      </c>
+      <c r="H165" s="17">
+        <v>1599553277</v>
+      </c>
+      <c r="I165" s="17">
+        <v>1599453453</v>
+      </c>
+      <c r="J165" s="18">
+        <v>1599553233</v>
+      </c>
     </row>
     <row r="166" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B166" s="13" t="s">
@@ -4378,12 +4714,24 @@
       <c r="D166" s="15">
         <v>5</v>
       </c>
-      <c r="E166" s="16"/>
-      <c r="F166" s="17"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="17"/>
-      <c r="I166" s="17"/>
-      <c r="J166" s="18"/>
+      <c r="E166" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F166" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="G166" s="17">
+        <v>1598252286</v>
+      </c>
+      <c r="H166" s="17">
+        <v>1599751368</v>
+      </c>
+      <c r="I166" s="17">
+        <v>1599653298</v>
+      </c>
+      <c r="J166" s="18">
+        <v>1599752708</v>
+      </c>
     </row>
     <row r="167" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B167" s="13" t="s">
@@ -4395,12 +4743,24 @@
       <c r="D167" s="15">
         <v>6</v>
       </c>
-      <c r="E167" s="16"/>
-      <c r="F167" s="17"/>
-      <c r="G167" s="17"/>
-      <c r="H167" s="17"/>
-      <c r="I167" s="17"/>
-      <c r="J167" s="18"/>
+      <c r="E167" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F167" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="G167" s="17">
+        <v>1519160199</v>
+      </c>
+      <c r="H167" s="17">
+        <v>1599553447</v>
+      </c>
+      <c r="I167" s="17">
+        <v>1599652452</v>
+      </c>
+      <c r="J167" s="18">
+        <v>1599653446</v>
+      </c>
     </row>
     <row r="168" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B168" s="13" t="s">
@@ -4412,12 +4772,24 @@
       <c r="D168" s="15">
         <v>7</v>
       </c>
-      <c r="E168" s="16"/>
-      <c r="F168" s="17"/>
-      <c r="G168" s="17"/>
-      <c r="H168" s="17"/>
-      <c r="I168" s="17"/>
-      <c r="J168" s="18"/>
+      <c r="E168" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="F168" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G168" s="17">
+        <v>1599751016</v>
+      </c>
+      <c r="H168" s="17">
+        <v>1599753691</v>
+      </c>
+      <c r="I168" s="17">
+        <v>1599754384</v>
+      </c>
+      <c r="J168" s="18">
+        <v>1599651347</v>
+      </c>
     </row>
     <row r="169" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B169" s="13" t="s">
@@ -4429,12 +4801,24 @@
       <c r="D169" s="15">
         <v>8</v>
       </c>
-      <c r="E169" s="16"/>
-      <c r="F169" s="17"/>
-      <c r="G169" s="17"/>
-      <c r="H169" s="17"/>
-      <c r="I169" s="17"/>
-      <c r="J169" s="18"/>
+      <c r="E169" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F169" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G169" s="17">
+        <v>1599751372</v>
+      </c>
+      <c r="H169" s="17">
+        <v>1598252486</v>
+      </c>
+      <c r="I169" s="17">
+        <v>1599653275</v>
+      </c>
+      <c r="J169" s="18">
+        <v>1599753761</v>
+      </c>
     </row>
     <row r="170" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B170" s="13" t="s">
@@ -4446,12 +4830,24 @@
       <c r="D170" s="15">
         <v>9</v>
       </c>
-      <c r="E170" s="16"/>
-      <c r="F170" s="17"/>
-      <c r="G170" s="17"/>
-      <c r="H170" s="17"/>
-      <c r="I170" s="17"/>
-      <c r="J170" s="18"/>
+      <c r="E170" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F170" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="G170" s="17">
+        <v>1599653521</v>
+      </c>
+      <c r="H170" s="17">
+        <v>1599653513</v>
+      </c>
+      <c r="I170" s="17">
+        <v>1599551262</v>
+      </c>
+      <c r="J170" s="18">
+        <v>1599553454</v>
+      </c>
     </row>
     <row r="171" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B171" s="13" t="s">
@@ -4463,12 +4859,24 @@
       <c r="D171" s="15">
         <v>10</v>
       </c>
-      <c r="E171" s="16"/>
-      <c r="F171" s="17"/>
-      <c r="G171" s="17"/>
-      <c r="H171" s="17"/>
-      <c r="I171" s="17"/>
-      <c r="J171" s="18"/>
+      <c r="E171" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="F171" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="G171" s="17">
+        <v>1599553263</v>
+      </c>
+      <c r="H171" s="17">
+        <v>1599551351</v>
+      </c>
+      <c r="I171" s="17">
+        <v>1599453309</v>
+      </c>
+      <c r="J171" s="18">
+        <v>1599453282</v>
+      </c>
     </row>
     <row r="172" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B172" s="13" t="s">
@@ -4480,12 +4888,24 @@
       <c r="D172" s="15">
         <v>11</v>
       </c>
-      <c r="E172" s="16"/>
-      <c r="F172" s="17"/>
-      <c r="G172" s="17"/>
-      <c r="H172" s="17"/>
-      <c r="I172" s="17"/>
-      <c r="J172" s="18"/>
+      <c r="E172" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F172" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="G172" s="17">
+        <v>1599451191</v>
+      </c>
+      <c r="H172" s="17">
+        <v>1599553348</v>
+      </c>
+      <c r="I172" s="17">
+        <v>1514956949</v>
+      </c>
+      <c r="J172" s="18">
+        <v>1599453333</v>
+      </c>
     </row>
     <row r="173" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B173" s="13" t="s">
@@ -4497,12 +4917,24 @@
       <c r="D173" s="15">
         <v>12</v>
       </c>
-      <c r="E173" s="16"/>
-      <c r="F173" s="17"/>
-      <c r="G173" s="17"/>
-      <c r="H173" s="17"/>
-      <c r="I173" s="17"/>
-      <c r="J173" s="18"/>
+      <c r="E173" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F173" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="G173" s="17">
+        <v>1599551367</v>
+      </c>
+      <c r="H173" s="17">
+        <v>1599553232</v>
+      </c>
+      <c r="I173" s="17">
+        <v>1599551141</v>
+      </c>
+      <c r="J173" s="18">
+        <v>1599553198</v>
+      </c>
     </row>
     <row r="174" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B174" s="13" t="s">
@@ -4514,12 +4946,24 @@
       <c r="D174" s="15">
         <v>1</v>
       </c>
-      <c r="E174" s="16"/>
-      <c r="F174" s="17"/>
-      <c r="G174" s="17"/>
-      <c r="H174" s="17"/>
-      <c r="I174" s="17"/>
-      <c r="J174" s="18"/>
+      <c r="E174" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F174" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G174" s="17">
+        <v>1598252203</v>
+      </c>
+      <c r="H174" s="17">
+        <v>1598352427</v>
+      </c>
+      <c r="I174" s="17">
+        <v>1598252469</v>
+      </c>
+      <c r="J174" s="18">
+        <v>1598252758</v>
+      </c>
     </row>
     <row r="175" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B175" s="13" t="s">
@@ -4531,12 +4975,24 @@
       <c r="D175" s="15">
         <v>2</v>
       </c>
-      <c r="E175" s="16"/>
-      <c r="F175" s="17"/>
-      <c r="G175" s="17"/>
-      <c r="H175" s="17"/>
-      <c r="I175" s="17"/>
-      <c r="J175" s="18"/>
+      <c r="E175" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F175" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="G175" s="17">
+        <v>1598252450</v>
+      </c>
+      <c r="H175" s="17">
+        <v>1599552692</v>
+      </c>
+      <c r="I175" s="17">
+        <v>1598252779</v>
+      </c>
+      <c r="J175" s="18">
+        <v>1598252387</v>
+      </c>
     </row>
     <row r="176" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B176" s="13" t="s">
@@ -4548,12 +5004,24 @@
       <c r="D176" s="15">
         <v>3</v>
       </c>
-      <c r="E176" s="16"/>
-      <c r="F176" s="17"/>
-      <c r="G176" s="17"/>
-      <c r="H176" s="17"/>
-      <c r="I176" s="17"/>
-      <c r="J176" s="18"/>
+      <c r="E176" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="F176" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="G176" s="17">
+        <v>1510855664</v>
+      </c>
+      <c r="H176" s="17">
+        <v>1596746147</v>
+      </c>
+      <c r="I176" s="17">
+        <v>1598252413</v>
+      </c>
+      <c r="J176" s="18">
+        <v>1598252405</v>
+      </c>
     </row>
     <row r="177" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B177" s="13" t="s">
@@ -4565,12 +5033,24 @@
       <c r="D177" s="15">
         <v>4</v>
       </c>
-      <c r="E177" s="16"/>
-      <c r="F177" s="17"/>
-      <c r="G177" s="17"/>
-      <c r="H177" s="17"/>
-      <c r="I177" s="17"/>
-      <c r="J177" s="18"/>
+      <c r="E177" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F177" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="G177" s="17">
+        <v>1598352787</v>
+      </c>
+      <c r="H177" s="17">
+        <v>1599651318</v>
+      </c>
+      <c r="I177" s="17">
+        <v>1598252253</v>
+      </c>
+      <c r="J177" s="18">
+        <v>1511055599</v>
+      </c>
     </row>
     <row r="178" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B178" s="13" t="s">
@@ -4582,12 +5062,24 @@
       <c r="D178" s="15">
         <v>5</v>
       </c>
-      <c r="E178" s="16"/>
-      <c r="F178" s="17"/>
-      <c r="G178" s="17"/>
-      <c r="H178" s="17"/>
-      <c r="I178" s="17"/>
-      <c r="J178" s="18"/>
+      <c r="E178" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="F178" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="G178" s="17">
+        <v>1514858813</v>
+      </c>
+      <c r="H178" s="17">
+        <v>1599553452</v>
+      </c>
+      <c r="I178" s="17">
+        <v>1510955610</v>
+      </c>
+      <c r="J178" s="18">
+        <v>1599652308</v>
+      </c>
     </row>
     <row r="179" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B179" s="13" t="s">
@@ -4599,12 +5091,24 @@
       <c r="D179" s="15">
         <v>6</v>
       </c>
-      <c r="E179" s="16"/>
-      <c r="F179" s="17"/>
-      <c r="G179" s="17"/>
-      <c r="H179" s="17"/>
-      <c r="I179" s="17"/>
-      <c r="J179" s="18"/>
+      <c r="E179" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F179" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="G179" s="17">
+        <v>1599453268</v>
+      </c>
+      <c r="H179" s="17">
+        <v>1599551148</v>
+      </c>
+      <c r="I179" s="17">
+        <v>1514655758</v>
+      </c>
+      <c r="J179" s="18">
+        <v>1514756263</v>
+      </c>
     </row>
     <row r="180" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B180" s="13" t="s">
@@ -4616,12 +5120,24 @@
       <c r="D180" s="15">
         <v>7</v>
       </c>
-      <c r="E180" s="16"/>
-      <c r="F180" s="17"/>
-      <c r="G180" s="17"/>
-      <c r="H180" s="17"/>
-      <c r="I180" s="17"/>
-      <c r="J180" s="18"/>
+      <c r="E180" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F180" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G180" s="17">
+        <v>1599754096</v>
+      </c>
+      <c r="H180" s="17">
+        <v>1599651208</v>
+      </c>
+      <c r="I180" s="17">
+        <v>1599651341</v>
+      </c>
+      <c r="J180" s="18">
+        <v>1599753798</v>
+      </c>
     </row>
     <row r="181" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B181" s="13" t="s">
@@ -4633,12 +5149,24 @@
       <c r="D181" s="15">
         <v>8</v>
       </c>
-      <c r="E181" s="16"/>
-      <c r="F181" s="17"/>
-      <c r="G181" s="17"/>
-      <c r="H181" s="17"/>
-      <c r="I181" s="17"/>
-      <c r="J181" s="18"/>
+      <c r="E181" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F181" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G181" s="17">
+        <v>1599753460</v>
+      </c>
+      <c r="H181" s="17">
+        <v>1599753812</v>
+      </c>
+      <c r="I181" s="17">
+        <v>1599751238</v>
+      </c>
+      <c r="J181" s="18">
+        <v>1599753349</v>
+      </c>
     </row>
     <row r="182" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B182" s="13" t="s">
@@ -4650,12 +5178,24 @@
       <c r="D182" s="15">
         <v>9</v>
       </c>
-      <c r="E182" s="16"/>
-      <c r="F182" s="17"/>
-      <c r="G182" s="17"/>
-      <c r="H182" s="17"/>
-      <c r="I182" s="17"/>
-      <c r="J182" s="18"/>
+      <c r="E182" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="F182" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="G182" s="17">
+        <v>1598252249</v>
+      </c>
+      <c r="H182" s="17">
+        <v>1519060441</v>
+      </c>
+      <c r="I182" s="17">
+        <v>1514658758</v>
+      </c>
+      <c r="J182" s="18">
+        <v>1598252789</v>
+      </c>
     </row>
     <row r="183" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B183" s="13" t="s">
@@ -4667,12 +5207,24 @@
       <c r="D183" s="15">
         <v>10</v>
       </c>
-      <c r="E183" s="16"/>
-      <c r="F183" s="17"/>
-      <c r="G183" s="17"/>
-      <c r="H183" s="17"/>
-      <c r="I183" s="17"/>
-      <c r="J183" s="18"/>
+      <c r="E183" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F183" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G183" s="17">
+        <v>1598352301</v>
+      </c>
+      <c r="H183" s="17">
+        <v>1598352361</v>
+      </c>
+      <c r="I183" s="17">
+        <v>1510755604</v>
+      </c>
+      <c r="J183" s="18">
+        <v>1511055595</v>
+      </c>
     </row>
     <row r="184" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B184" s="13" t="s">
@@ -4684,12 +5236,24 @@
       <c r="D184" s="15">
         <v>11</v>
       </c>
-      <c r="E184" s="16"/>
-      <c r="F184" s="17"/>
-      <c r="G184" s="17"/>
-      <c r="H184" s="17"/>
-      <c r="I184" s="17"/>
-      <c r="J184" s="18"/>
+      <c r="E184" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="F184" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="G184" s="17">
+        <v>1598352206</v>
+      </c>
+      <c r="H184" s="17">
+        <v>1598252342</v>
+      </c>
+      <c r="I184" s="17">
+        <v>1598352210</v>
+      </c>
+      <c r="J184" s="18">
+        <v>1598352754</v>
+      </c>
     </row>
     <row r="185" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B185" s="13" t="s">
@@ -4701,12 +5265,24 @@
       <c r="D185" s="15">
         <v>12</v>
       </c>
-      <c r="E185" s="16"/>
-      <c r="F185" s="17"/>
-      <c r="G185" s="17"/>
-      <c r="H185" s="17"/>
-      <c r="I185" s="17"/>
-      <c r="J185" s="18"/>
+      <c r="E185" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F185" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="G185" s="17">
+        <v>1599453442</v>
+      </c>
+      <c r="H185" s="17">
+        <v>1599653257</v>
+      </c>
+      <c r="I185" s="17">
+        <v>1599753989</v>
+      </c>
+      <c r="J185" s="18">
+        <v>1599451320</v>
+      </c>
     </row>
     <row r="186" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B186" s="13" t="s">
@@ -4718,12 +5294,24 @@
       <c r="D186" s="15">
         <v>1</v>
       </c>
-      <c r="E186" s="16"/>
-      <c r="F186" s="17"/>
-      <c r="G186" s="17"/>
-      <c r="H186" s="17"/>
-      <c r="I186" s="17"/>
-      <c r="J186" s="18"/>
+      <c r="E186" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F186" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="G186" s="17">
+        <v>271116031</v>
+      </c>
+      <c r="H186" s="17">
+        <v>272116004</v>
+      </c>
+      <c r="I186" s="17">
+        <v>271115966</v>
+      </c>
+      <c r="J186" s="18">
+        <v>271116072</v>
+      </c>
     </row>
     <row r="187" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B187" s="13" t="s">
@@ -4735,12 +5323,24 @@
       <c r="D187" s="15">
         <v>2</v>
       </c>
-      <c r="E187" s="16"/>
-      <c r="F187" s="17"/>
-      <c r="G187" s="17"/>
-      <c r="H187" s="17"/>
-      <c r="I187" s="17"/>
-      <c r="J187" s="18"/>
+      <c r="E187" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="F187" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="G187" s="17">
+        <v>271116055</v>
+      </c>
+      <c r="H187" s="17">
+        <v>271116000</v>
+      </c>
+      <c r="I187" s="17">
+        <v>271116026</v>
+      </c>
+      <c r="J187" s="18">
+        <v>271116175</v>
+      </c>
     </row>
     <row r="188" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B188" s="13" t="s">
@@ -4752,12 +5352,24 @@
       <c r="D188" s="15">
         <v>3</v>
       </c>
-      <c r="E188" s="16"/>
-      <c r="F188" s="17"/>
-      <c r="G188" s="17"/>
-      <c r="H188" s="17"/>
-      <c r="I188" s="17"/>
-      <c r="J188" s="18"/>
+      <c r="E188" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F188" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="G188" s="17">
+        <v>271116034</v>
+      </c>
+      <c r="H188" s="17">
+        <v>271115980</v>
+      </c>
+      <c r="I188" s="17">
+        <v>271116021</v>
+      </c>
+      <c r="J188" s="18">
+        <v>271116071</v>
+      </c>
     </row>
     <row r="189" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B189" s="13" t="s">
@@ -4769,12 +5381,24 @@
       <c r="D189" s="15">
         <v>4</v>
       </c>
-      <c r="E189" s="16"/>
-      <c r="F189" s="17"/>
-      <c r="G189" s="17"/>
-      <c r="H189" s="17"/>
-      <c r="I189" s="17"/>
-      <c r="J189" s="18"/>
+      <c r="E189" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="F189" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="G189" s="17">
+        <v>271115967</v>
+      </c>
+      <c r="H189" s="17">
+        <v>271116171</v>
+      </c>
+      <c r="I189" s="17">
+        <v>271115964</v>
+      </c>
+      <c r="J189" s="18">
+        <v>271115969</v>
+      </c>
     </row>
     <row r="190" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B190" s="13" t="s">
@@ -4786,12 +5410,24 @@
       <c r="D190" s="15">
         <v>5</v>
       </c>
-      <c r="E190" s="16"/>
-      <c r="F190" s="17"/>
-      <c r="G190" s="17"/>
-      <c r="H190" s="17"/>
-      <c r="I190" s="17"/>
-      <c r="J190" s="18"/>
+      <c r="E190" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F190" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="G190" s="17">
+        <v>271115949</v>
+      </c>
+      <c r="H190" s="17">
+        <v>271115981</v>
+      </c>
+      <c r="I190" s="17">
+        <v>271116027</v>
+      </c>
+      <c r="J190" s="18">
+        <v>271116056</v>
+      </c>
     </row>
     <row r="191" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B191" s="13" t="s">
@@ -4803,12 +5439,24 @@
       <c r="D191" s="15">
         <v>6</v>
       </c>
-      <c r="E191" s="16"/>
-      <c r="F191" s="17"/>
-      <c r="G191" s="17"/>
-      <c r="H191" s="17"/>
-      <c r="I191" s="17"/>
-      <c r="J191" s="18"/>
+      <c r="E191" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F191" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="G191" s="17">
+        <v>271115968</v>
+      </c>
+      <c r="H191" s="17">
+        <v>271115971</v>
+      </c>
+      <c r="I191" s="17">
+        <v>271115977</v>
+      </c>
+      <c r="J191" s="18">
+        <v>271116030</v>
+      </c>
     </row>
     <row r="192" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B192" s="13" t="s">
@@ -4820,12 +5468,24 @@
       <c r="D192" s="15">
         <v>7</v>
       </c>
-      <c r="E192" s="16"/>
-      <c r="F192" s="17"/>
-      <c r="G192" s="17"/>
-      <c r="H192" s="17"/>
-      <c r="I192" s="17"/>
-      <c r="J192" s="18"/>
+      <c r="E192" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F192" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="G192" s="17">
+        <v>272116179</v>
+      </c>
+      <c r="H192" s="17">
+        <v>271116064</v>
+      </c>
+      <c r="I192" s="17">
+        <v>271116170</v>
+      </c>
+      <c r="J192" s="18">
+        <v>271116032</v>
+      </c>
     </row>
     <row r="193" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B193" s="13" t="s">
@@ -4837,12 +5497,24 @@
       <c r="D193" s="15">
         <v>8</v>
       </c>
-      <c r="E193" s="16"/>
-      <c r="F193" s="17"/>
-      <c r="G193" s="17"/>
-      <c r="H193" s="17"/>
-      <c r="I193" s="17"/>
-      <c r="J193" s="18"/>
+      <c r="E193" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="F193" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="G193" s="17">
+        <v>271116033</v>
+      </c>
+      <c r="H193" s="17">
+        <v>271115978</v>
+      </c>
+      <c r="I193" s="17">
+        <v>271116060</v>
+      </c>
+      <c r="J193" s="18">
+        <v>271116018</v>
+      </c>
     </row>
     <row r="194" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B194" s="13" t="s">
@@ -4854,8 +5526,12 @@
       <c r="D194" s="15">
         <v>9</v>
       </c>
-      <c r="E194" s="16"/>
-      <c r="F194" s="17"/>
+      <c r="E194" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="F194" s="17" t="s">
+        <v>289</v>
+      </c>
       <c r="G194" s="17"/>
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
@@ -4871,12 +5547,24 @@
       <c r="D195" s="15">
         <v>10</v>
       </c>
-      <c r="E195" s="16"/>
-      <c r="F195" s="17"/>
-      <c r="G195" s="17"/>
-      <c r="H195" s="17"/>
-      <c r="I195" s="17"/>
-      <c r="J195" s="18"/>
+      <c r="E195" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F195" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="G195" s="17">
+        <v>271116178</v>
+      </c>
+      <c r="H195" s="17">
+        <v>271116015</v>
+      </c>
+      <c r="I195" s="17">
+        <v>271116058</v>
+      </c>
+      <c r="J195" s="18">
+        <v>271115976</v>
+      </c>
     </row>
     <row r="196" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B196" s="13" t="s">
@@ -4888,12 +5576,24 @@
       <c r="D196" s="15">
         <v>11</v>
       </c>
-      <c r="E196" s="16"/>
-      <c r="F196" s="17"/>
-      <c r="G196" s="17"/>
-      <c r="H196" s="17"/>
-      <c r="I196" s="17"/>
-      <c r="J196" s="18"/>
+      <c r="E196" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F196" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="G196" s="17">
+        <v>271116016</v>
+      </c>
+      <c r="H196" s="17">
+        <v>271115948</v>
+      </c>
+      <c r="I196" s="17">
+        <v>272116062</v>
+      </c>
+      <c r="J196" s="18">
+        <v>271116002</v>
+      </c>
     </row>
     <row r="197" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B197" s="13" t="s">
@@ -4905,12 +5605,24 @@
       <c r="D197" s="15">
         <v>12</v>
       </c>
-      <c r="E197" s="16"/>
-      <c r="F197" s="17"/>
-      <c r="G197" s="17"/>
-      <c r="H197" s="17"/>
-      <c r="I197" s="17"/>
-      <c r="J197" s="18"/>
+      <c r="E197" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F197" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="G197" s="17">
+        <v>271115963</v>
+      </c>
+      <c r="H197" s="17">
+        <v>271116070</v>
+      </c>
+      <c r="I197" s="17">
+        <v>271115950</v>
+      </c>
+      <c r="J197" s="18">
+        <v>271116025</v>
+      </c>
     </row>
     <row r="198" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B198" s="13" t="s">
@@ -4922,12 +5634,24 @@
       <c r="D198" s="15">
         <v>1</v>
       </c>
-      <c r="E198" s="16"/>
-      <c r="F198" s="17"/>
-      <c r="G198" s="17"/>
-      <c r="H198" s="17"/>
-      <c r="I198" s="17"/>
-      <c r="J198" s="18"/>
+      <c r="E198" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F198" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="G198" s="17">
+        <v>1599754052</v>
+      </c>
+      <c r="H198" s="17">
+        <v>1599653368</v>
+      </c>
+      <c r="I198" s="17">
+        <v>1599754133</v>
+      </c>
+      <c r="J198" s="18">
+        <v>1599651332</v>
+      </c>
     </row>
     <row r="199" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B199" s="13" t="s">
@@ -4939,12 +5663,24 @@
       <c r="D199" s="15">
         <v>2</v>
       </c>
-      <c r="E199" s="16"/>
-      <c r="F199" s="17"/>
-      <c r="G199" s="17"/>
-      <c r="H199" s="17"/>
-      <c r="I199" s="17"/>
-      <c r="J199" s="18"/>
+      <c r="E199" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="F199" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="G199" s="17">
+        <v>1599453306</v>
+      </c>
+      <c r="H199" s="17">
+        <v>1597951343</v>
+      </c>
+      <c r="I199" s="17">
+        <v>1599453564</v>
+      </c>
+      <c r="J199" s="18">
+        <v>1599453444</v>
+      </c>
     </row>
     <row r="200" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B200" s="13" t="s">
@@ -4956,12 +5692,24 @@
       <c r="D200" s="15">
         <v>3</v>
       </c>
-      <c r="E200" s="16"/>
-      <c r="F200" s="17"/>
-      <c r="G200" s="17"/>
-      <c r="H200" s="17"/>
-      <c r="I200" s="17"/>
-      <c r="J200" s="18"/>
+      <c r="E200" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="F200" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="G200" s="17">
+        <v>1510955649</v>
+      </c>
+      <c r="H200" s="17">
+        <v>1510855611</v>
+      </c>
+      <c r="I200" s="17">
+        <v>1510955540</v>
+      </c>
+      <c r="J200" s="18">
+        <v>1510955550</v>
+      </c>
     </row>
     <row r="201" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B201" s="13" t="s">
@@ -4973,12 +5721,24 @@
       <c r="D201" s="15">
         <v>4</v>
       </c>
-      <c r="E201" s="16"/>
-      <c r="F201" s="17"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="17"/>
-      <c r="I201" s="17"/>
-      <c r="J201" s="18"/>
+      <c r="E201" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="F201" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G201" s="17">
+        <v>1510955594</v>
+      </c>
+      <c r="H201" s="17">
+        <v>1510755369</v>
+      </c>
+      <c r="I201" s="17">
+        <v>1510654647</v>
+      </c>
+      <c r="J201" s="18">
+        <v>1598252453</v>
+      </c>
     </row>
     <row r="202" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B202" s="13" t="s">
@@ -4990,12 +5750,24 @@
       <c r="D202" s="15">
         <v>5</v>
       </c>
-      <c r="E202" s="16"/>
-      <c r="F202" s="17"/>
-      <c r="G202" s="17"/>
-      <c r="H202" s="17"/>
-      <c r="I202" s="17"/>
-      <c r="J202" s="18"/>
+      <c r="E202" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="F202" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="G202" s="17">
+        <v>1599751209</v>
+      </c>
+      <c r="H202" s="17">
+        <v>1599753467</v>
+      </c>
+      <c r="I202" s="17">
+        <v>1599652795</v>
+      </c>
+      <c r="J202" s="18">
+        <v>1599753585</v>
+      </c>
     </row>
     <row r="203" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B203" s="13" t="s">
@@ -5007,12 +5779,24 @@
       <c r="D203" s="15">
         <v>6</v>
       </c>
-      <c r="E203" s="16"/>
-      <c r="F203" s="17"/>
-      <c r="G203" s="17"/>
-      <c r="H203" s="17"/>
-      <c r="I203" s="17"/>
-      <c r="J203" s="18"/>
+      <c r="E203" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="F203" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="G203" s="17">
+        <v>1599653354</v>
+      </c>
+      <c r="H203" s="17">
+        <v>1599753876</v>
+      </c>
+      <c r="I203" s="17">
+        <v>1599751376</v>
+      </c>
+      <c r="J203" s="18">
+        <v>1599753328</v>
+      </c>
     </row>
     <row r="204" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B204" s="13" t="s">
@@ -5024,12 +5808,24 @@
       <c r="D204" s="15">
         <v>7</v>
       </c>
-      <c r="E204" s="16"/>
-      <c r="F204" s="17"/>
-      <c r="G204" s="17"/>
-      <c r="H204" s="17"/>
-      <c r="I204" s="17"/>
-      <c r="J204" s="18"/>
+      <c r="E204" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F204" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="G204" s="17">
+        <v>1599753839</v>
+      </c>
+      <c r="H204" s="17">
+        <v>1599752473</v>
+      </c>
+      <c r="I204" s="17">
+        <v>1599753504</v>
+      </c>
+      <c r="J204" s="18">
+        <v>1599754395</v>
+      </c>
     </row>
     <row r="205" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B205" s="13" t="s">
@@ -5041,12 +5837,24 @@
       <c r="D205" s="15">
         <v>8</v>
       </c>
-      <c r="E205" s="16"/>
-      <c r="F205" s="17"/>
-      <c r="G205" s="17"/>
-      <c r="H205" s="17"/>
-      <c r="I205" s="17"/>
-      <c r="J205" s="18"/>
+      <c r="E205" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="F205" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="G205" s="17">
+        <v>1599753597</v>
+      </c>
+      <c r="H205" s="17">
+        <v>1599653296</v>
+      </c>
+      <c r="I205" s="17">
+        <v>1598252314</v>
+      </c>
+      <c r="J205" s="18">
+        <v>1598753601</v>
+      </c>
     </row>
     <row r="206" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B206" s="13" t="s">
@@ -5058,12 +5866,24 @@
       <c r="D206" s="15">
         <v>9</v>
       </c>
-      <c r="E206" s="16"/>
-      <c r="F206" s="17"/>
-      <c r="G206" s="17"/>
-      <c r="H206" s="17"/>
-      <c r="I206" s="17"/>
-      <c r="J206" s="18"/>
+      <c r="E206" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F206" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="G206" s="17">
+        <v>1599453297</v>
+      </c>
+      <c r="H206" s="17">
+        <v>1599453310</v>
+      </c>
+      <c r="I206" s="17">
+        <v>1599453450</v>
+      </c>
+      <c r="J206" s="18">
+        <v>1599453457</v>
+      </c>
     </row>
     <row r="207" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B207" s="13" t="s">
@@ -5075,12 +5895,24 @@
       <c r="D207" s="15">
         <v>10</v>
       </c>
-      <c r="E207" s="16"/>
-      <c r="F207" s="17"/>
-      <c r="G207" s="17"/>
-      <c r="H207" s="17"/>
-      <c r="I207" s="17"/>
-      <c r="J207" s="18"/>
+      <c r="E207" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="F207" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G207" s="17">
+        <v>1598352355</v>
+      </c>
+      <c r="H207" s="17">
+        <v>1599451327</v>
+      </c>
+      <c r="I207" s="17">
+        <v>1599551145</v>
+      </c>
+      <c r="J207" s="18">
+        <v>1599453509</v>
+      </c>
     </row>
     <row r="208" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B208" s="13" t="s">
@@ -5092,12 +5924,24 @@
       <c r="D208" s="15">
         <v>11</v>
       </c>
-      <c r="E208" s="16"/>
-      <c r="F208" s="17"/>
-      <c r="G208" s="17"/>
-      <c r="H208" s="17"/>
-      <c r="I208" s="17"/>
-      <c r="J208" s="18"/>
+      <c r="E208" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="F208" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="G208" s="17">
+        <v>1599553271</v>
+      </c>
+      <c r="H208" s="17">
+        <v>1514756272</v>
+      </c>
+      <c r="I208" s="17">
+        <v>1599553259</v>
+      </c>
+      <c r="J208" s="18">
+        <v>1599653280</v>
+      </c>
     </row>
     <row r="209" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B209" s="13" t="s">
@@ -5109,12 +5953,24 @@
       <c r="D209" s="15">
         <v>12</v>
       </c>
-      <c r="E209" s="16"/>
-      <c r="F209" s="17"/>
-      <c r="G209" s="17"/>
-      <c r="H209" s="17"/>
-      <c r="I209" s="17"/>
-      <c r="J209" s="18"/>
+      <c r="E209" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="F209" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="G209" s="17">
+        <v>1599553292</v>
+      </c>
+      <c r="H209" s="17">
+        <v>1599553284</v>
+      </c>
+      <c r="I209" s="17">
+        <v>1599353594</v>
+      </c>
+      <c r="J209" s="18">
+        <v>1599453288</v>
+      </c>
     </row>
     <row r="210" spans="2:10" s="12" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B210" s="13" t="s">
